--- a/src/main/resources/static/xls/模式总结.xlsx
+++ b/src/main/resources/static/xls/模式总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="22965" windowHeight="9435"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="22968" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
   <si>
     <t>东方中科</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -304,6 +304,22 @@
   </si>
   <si>
     <t>诚迈科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁商发展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文化长城</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1422,20 +1438,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.875" style="1"/>
-    <col min="6" max="6" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="58" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27">
+    <row r="8" spans="1:12" ht="28.8">
       <c r="A8" s="26">
         <v>20190829</v>
       </c>
@@ -1967,7 +1983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="13.9" customHeight="1">
+    <row r="17" spans="1:12" ht="13.95" customHeight="1">
       <c r="A17" s="16">
         <v>20190923</v>
       </c>
@@ -2116,15 +2132,62 @@
       <c r="C21" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="D21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>64</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20191025</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>64</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="I23" s="1"/>
+      <c r="A23" s="1">
+        <v>20191030</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="1">
+        <v>8</v>
+      </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -2197,7 +2260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2210,7 +2273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
